--- a/automatic_testing/submission_import.xlsx
+++ b/automatic_testing/submission_import.xlsx
@@ -974,7 +974,7 @@
       </c>
       <c r="K14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="4">
         <v>44767</v>
       </c>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="K15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
       <c r="A16" s="4">
         <v>44767</v>
       </c>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
       <c r="A17" s="4">
         <v>44767</v>
       </c>
